--- a/src/files/EVA_Submission_template.V1.0.6.xlsx
+++ b/src/files/EVA_Submission_template.V1.0.6.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pagarcia/appl/js/eva-web/src/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/setup/Desktop/EVA/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="520" windowWidth="30880" windowHeight="18700" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="993" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="PLEASE READ FIRST" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Files" sheetId="10" r:id="rId10"/>
     <sheet name="CVs" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1610,6 +1610,7 @@
         <sz val="14"/>
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>eva-helpdesk@ebi.ac.uk</t>
@@ -1634,6 +1635,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>BOLD</t>
@@ -1643,6 +1645,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> is </t>
@@ -1653,6 +1656,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>REQUIRED</t>
@@ -1662,6 +1666,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">. </t>
@@ -1672,6 +1677,7 @@
         <sz val="14"/>
         <color rgb="FF008000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>GREEN</t>
@@ -1681,6 +1687,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> indicates</t>
@@ -1690,6 +1697,7 @@
         <sz val="14"/>
         <color rgb="FF008000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1700,6 +1708,7 @@
         <sz val="14"/>
         <color rgb="FF008000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>EITHER</t>
@@ -1709,6 +1718,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>/</t>
@@ -1719,6 +1729,7 @@
         <sz val="14"/>
         <color rgb="FF008000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>OR</t>
@@ -1728,6 +1739,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> requirement.</t>
@@ -1753,7 +1765,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1857,24 +1869,28 @@
       <sz val="20"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1882,6 +1898,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1889,24 +1906,28 @@
       <sz val="14"/>
       <color rgb="FF008000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF008000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1923,6 +1944,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2143,7 +2190,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2155,8 +2202,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2289,6 +2337,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2300,31 +2369,25 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2333,26 +2396,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2363,6 +2416,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2770,7 +2824,7 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -2782,8 +2836,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -2792,10 +2846,10 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
@@ -2804,8 +2858,8 @@
       <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
@@ -2826,8 +2880,8 @@
       <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -2848,10 +2902,10 @@
       <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="67"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
@@ -2860,8 +2914,8 @@
       <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="75"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2882,8 +2936,8 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2892,10 +2946,10 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" s="29" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="72" t="s">
         <v>521</v>
       </c>
-      <c r="B11" s="76"/>
+      <c r="B11" s="72"/>
     </row>
     <row r="12" spans="1:8" s="29" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
@@ -2948,28 +3002,28 @@
     </row>
     <row r="18" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="77"/>
+      <c r="B19" s="73"/>
     </row>
     <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="67" t="s">
         <v>524</v>
       </c>
-      <c r="B20" s="73"/>
+      <c r="B20" s="67"/>
     </row>
     <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="73"/>
+      <c r="B21" s="67"/>
     </row>
     <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="74"/>
+      <c r="B22" s="68"/>
     </row>
     <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="63" t="s">
@@ -3036,6 +3090,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A8:B8"/>
@@ -3044,12 +3104,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3057,10 +3111,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3084,6 +3138,9 @@
       <c r="D1" s="9" t="s">
         <v>212</v>
       </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="92"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4703,10 +4760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4721,7 +4778,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -4736,12 +4793,17 @@
       <c r="E1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>21</v>
+      <c r="F1" s="20" t="s">
+        <v>526</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
+      <c r="G2" s="90"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4906,7 +4968,7 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4987,7 +5049,7 @@
   </sheetPr>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5847,7 +5909,7 @@
   <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5902,12 +5964,12 @@
   <sheetData>
     <row r="1" spans="1:46" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="50"/>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="85"/>
       <c r="F1" s="30" t="s">
         <v>152</v>
       </c>
@@ -5954,10 +6016,10 @@
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="80"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
       <c r="F2" s="78" t="s">
         <v>62</v>
       </c>
@@ -5966,16 +6028,16 @@
       <c r="I2" s="78"/>
       <c r="J2" s="78"/>
       <c r="K2" s="78"/>
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81" t="s">
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
       <c r="R2" s="78" t="s">
         <v>86</v>
       </c>
@@ -6017,11 +6079,11 @@
       <c r="A3" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="87" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="82" t="s">
-        <v>528</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>60</v>
@@ -6465,7 +6527,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6537,6 +6599,9 @@
       <c r="P1" t="s">
         <v>179</v>
       </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F2" s="91"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
